--- a/QM/Testfälle.xlsx
+++ b/QM/Testfälle.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Torben\Desktop\Rep\Qualitätsmanagement\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Torben\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="44">
   <si>
     <t>Testfälle für die Implementierung</t>
   </si>
@@ -83,7 +83,79 @@
     <t>Clicker Event anlegen</t>
   </si>
   <si>
-    <t xml:space="preserve">Durch das eintragen des Textfeldes "" </t>
+    <t>Durch das eintragen des Textfeldes "" wird der Button Clicker Event anlegen aktiviert</t>
+  </si>
+  <si>
+    <t>Name schon vergeben</t>
+  </si>
+  <si>
+    <t>Bei schon vorhandenem Namen des eingegebenen Clicker Events kommt eine Fehlermeldung mit der Meldung, dass dieser Name schon vergeben ist und lässt den Nutzer erneut einen Namen eingeben</t>
+  </si>
+  <si>
+    <t>Hinzufügen von Event</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Durch das erflogreiche anlegen eines Clicker events erscheint in dem Table das Clicker Event </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bearbeitung aktivieren </t>
+  </si>
+  <si>
+    <t>Durch das anklicken eines Clicker Events aus dem Table lässt sich das Event über den dann aktivierten Buttons "Clicker Event bearbeiten " bearbeiten</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bearbeiten Maske </t>
+  </si>
+  <si>
+    <t>Durch das anklicken des Buttons "Clicker Event bearbeiten" Buttons öffnet sich eine neue Scene mit folgenden Textfields "Frage" 5 mal "Antwort" sowie einem Radio Button, der die richtige Antwort makiert und einem ausgegrautem "Add" Button</t>
+  </si>
+  <si>
+    <t>Frage hinzufügen</t>
+  </si>
+  <si>
+    <t>Durch das ausfüllen der gesamten Textfelder und des markierens der richtigen Antwort wird der "Add" Button aktiviert</t>
+  </si>
+  <si>
+    <t xml:space="preserve">weitere Fragen </t>
+  </si>
+  <si>
+    <t>Durch das Clicken des "Add" Buttons wird die Maske abgespeichert und die Textfelder geleert um weitere Fragen  inkl. Antworten einzugeben</t>
+  </si>
+  <si>
+    <t>Zurück zur Clicker Event Maske</t>
+  </si>
+  <si>
+    <t>Durch das Anklicken des "Zurück" buttons in der Clicker Event bearbeiten Maske gelangt man zur Clicker Event Maske</t>
+  </si>
+  <si>
+    <t>Event freigegeben</t>
+  </si>
+  <si>
+    <t>Falls das ausgewählte Clicker Event schon freigegeben wurde kommt beim anklicken von "Clicker Event bearbeiten" ein Pop-up mit "Clicker Event kann nicht bearbeitet werden, da dies schon freigegeben wurde</t>
+  </si>
+  <si>
+    <t>Event freigeben</t>
+  </si>
+  <si>
+    <t>Durch das anklicken eines Clicker Events wird der Button "freigeben" aktiviert über den man das Event für die Studenten zur Bearbeitung freigeben kann. Die Student werden durch das aktivieren des Buttons per Email benachichtigt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Event abschließen </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Durch das klicken des Buttons Terminieren kann ein freigegebenes Event beendet werden. Durch das Terminieren wird der Button "Analyse Button" für das jeweilige Event aktiviert </t>
+  </si>
+  <si>
+    <t>Analyse</t>
+  </si>
+  <si>
+    <t>Durch das klicken des "Analyse Button" wird die Auswertung in einer neuen Scene angezeigt</t>
+  </si>
+  <si>
+    <t>Zurück</t>
+  </si>
+  <si>
+    <t>Durch den Button "zurück" in der maske Analyse keht man auf die Clicker Event Maske zurück</t>
   </si>
 </sst>
 </file>
@@ -222,26 +294,22 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -264,6 +332,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -578,10 +650,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K43"/>
+  <dimension ref="A1:K93"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
-      <selection activeCell="D30" sqref="D30:F33"/>
+    <sheetView tabSelected="1" topLeftCell="A38" workbookViewId="0">
+      <selection activeCell="M107" sqref="A39:M107"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -590,35 +662,35 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
+      <c r="B1" s="15"/>
+      <c r="C1" s="15"/>
+      <c r="D1" s="15"/>
+      <c r="E1" s="15"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="1"/>
-      <c r="D3" s="1" t="s">
+      <c r="C3" s="16"/>
+      <c r="D3" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="E3" s="1"/>
-      <c r="F3" s="1"/>
-      <c r="G3" s="3" t="s">
+      <c r="E3" s="16"/>
+      <c r="F3" s="16"/>
+      <c r="G3" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="H3" s="3"/>
-      <c r="I3" s="3" t="s">
+      <c r="H3" s="1"/>
+      <c r="I3" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="J3" s="3" t="s">
+      <c r="J3" s="1" t="s">
         <v>5</v>
       </c>
       <c r="K3" t="s">
@@ -626,72 +698,72 @@
       </c>
     </row>
     <row r="5" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="5">
+      <c r="A5" s="3">
         <v>1</v>
       </c>
-      <c r="B5" s="5" t="s">
+      <c r="B5" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="5"/>
+      <c r="C5" s="3"/>
       <c r="D5" s="6" t="s">
         <v>7</v>
       </c>
       <c r="E5" s="6"/>
       <c r="F5" s="6"/>
-      <c r="G5" s="11"/>
-      <c r="H5" s="12"/>
-      <c r="I5" s="5"/>
-      <c r="J5" s="5"/>
-      <c r="K5" s="5"/>
+      <c r="G5" s="9"/>
+      <c r="H5" s="10"/>
+      <c r="I5" s="3"/>
+      <c r="J5" s="3"/>
+      <c r="K5" s="3"/>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A6" s="7"/>
-      <c r="B6" s="7"/>
-      <c r="C6" s="7"/>
-      <c r="D6" s="8"/>
-      <c r="E6" s="8"/>
-      <c r="F6" s="8"/>
-      <c r="G6" s="13"/>
-      <c r="H6" s="14"/>
-      <c r="I6" s="7"/>
-      <c r="J6" s="7"/>
-      <c r="K6" s="7"/>
+      <c r="A6" s="4"/>
+      <c r="B6" s="4"/>
+      <c r="C6" s="4"/>
+      <c r="D6" s="7"/>
+      <c r="E6" s="7"/>
+      <c r="F6" s="7"/>
+      <c r="G6" s="11"/>
+      <c r="H6" s="12"/>
+      <c r="I6" s="4"/>
+      <c r="J6" s="4"/>
+      <c r="K6" s="4"/>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A7" s="7"/>
-      <c r="B7" s="7"/>
-      <c r="C7" s="7"/>
-      <c r="D7" s="8"/>
-      <c r="E7" s="8"/>
-      <c r="F7" s="8"/>
-      <c r="G7" s="13"/>
-      <c r="H7" s="14"/>
-      <c r="I7" s="7"/>
-      <c r="J7" s="7"/>
-      <c r="K7" s="7"/>
+      <c r="A7" s="4"/>
+      <c r="B7" s="4"/>
+      <c r="C7" s="4"/>
+      <c r="D7" s="7"/>
+      <c r="E7" s="7"/>
+      <c r="F7" s="7"/>
+      <c r="G7" s="11"/>
+      <c r="H7" s="12"/>
+      <c r="I7" s="4"/>
+      <c r="J7" s="4"/>
+      <c r="K7" s="4"/>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A8" s="9"/>
-      <c r="B8" s="9"/>
-      <c r="C8" s="9"/>
-      <c r="D8" s="10"/>
-      <c r="E8" s="10"/>
-      <c r="F8" s="10"/>
-      <c r="G8" s="15"/>
-      <c r="H8" s="16"/>
-      <c r="I8" s="9"/>
-      <c r="J8" s="9"/>
-      <c r="K8" s="9"/>
+      <c r="A8" s="5"/>
+      <c r="B8" s="5"/>
+      <c r="C8" s="5"/>
+      <c r="D8" s="8"/>
+      <c r="E8" s="8"/>
+      <c r="F8" s="8"/>
+      <c r="G8" s="13"/>
+      <c r="H8" s="14"/>
+      <c r="I8" s="5"/>
+      <c r="J8" s="5"/>
+      <c r="K8" s="5"/>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="D9" s="4"/>
-      <c r="E9" s="4"/>
-      <c r="F9" s="4"/>
-      <c r="G9" s="4"/>
-      <c r="H9" s="4"/>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2"/>
+      <c r="F9" s="2"/>
+      <c r="G9" s="2"/>
+      <c r="H9" s="2"/>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A10" s="5">
+      <c r="A10" s="3">
         <v>2</v>
       </c>
       <c r="B10" s="6" t="s">
@@ -703,53 +775,53 @@
       </c>
       <c r="E10" s="6"/>
       <c r="F10" s="6"/>
-      <c r="G10" s="11"/>
-      <c r="H10" s="12"/>
-      <c r="I10" s="5"/>
-      <c r="J10" s="5"/>
-      <c r="K10" s="5"/>
+      <c r="G10" s="9"/>
+      <c r="H10" s="10"/>
+      <c r="I10" s="3"/>
+      <c r="J10" s="3"/>
+      <c r="K10" s="3"/>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A11" s="7"/>
-      <c r="B11" s="8"/>
-      <c r="C11" s="8"/>
-      <c r="D11" s="8"/>
-      <c r="E11" s="8"/>
-      <c r="F11" s="8"/>
-      <c r="G11" s="13"/>
-      <c r="H11" s="14"/>
-      <c r="I11" s="7"/>
-      <c r="J11" s="7"/>
-      <c r="K11" s="7"/>
+      <c r="A11" s="4"/>
+      <c r="B11" s="7"/>
+      <c r="C11" s="7"/>
+      <c r="D11" s="7"/>
+      <c r="E11" s="7"/>
+      <c r="F11" s="7"/>
+      <c r="G11" s="11"/>
+      <c r="H11" s="12"/>
+      <c r="I11" s="4"/>
+      <c r="J11" s="4"/>
+      <c r="K11" s="4"/>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A12" s="7"/>
-      <c r="B12" s="8"/>
-      <c r="C12" s="8"/>
-      <c r="D12" s="8"/>
-      <c r="E12" s="8"/>
-      <c r="F12" s="8"/>
-      <c r="G12" s="13"/>
-      <c r="H12" s="14"/>
-      <c r="I12" s="7"/>
-      <c r="J12" s="7"/>
-      <c r="K12" s="7"/>
+      <c r="A12" s="4"/>
+      <c r="B12" s="7"/>
+      <c r="C12" s="7"/>
+      <c r="D12" s="7"/>
+      <c r="E12" s="7"/>
+      <c r="F12" s="7"/>
+      <c r="G12" s="11"/>
+      <c r="H12" s="12"/>
+      <c r="I12" s="4"/>
+      <c r="J12" s="4"/>
+      <c r="K12" s="4"/>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A13" s="9"/>
-      <c r="B13" s="10"/>
-      <c r="C13" s="10"/>
-      <c r="D13" s="10"/>
-      <c r="E13" s="10"/>
-      <c r="F13" s="10"/>
-      <c r="G13" s="15"/>
-      <c r="H13" s="16"/>
-      <c r="I13" s="9"/>
-      <c r="J13" s="9"/>
-      <c r="K13" s="9"/>
+      <c r="A13" s="5"/>
+      <c r="B13" s="8"/>
+      <c r="C13" s="8"/>
+      <c r="D13" s="8"/>
+      <c r="E13" s="8"/>
+      <c r="F13" s="8"/>
+      <c r="G13" s="13"/>
+      <c r="H13" s="14"/>
+      <c r="I13" s="5"/>
+      <c r="J13" s="5"/>
+      <c r="K13" s="5"/>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A15" s="5">
+      <c r="A15" s="3">
         <v>3</v>
       </c>
       <c r="B15" s="6" t="s">
@@ -761,53 +833,53 @@
       </c>
       <c r="E15" s="6"/>
       <c r="F15" s="6"/>
-      <c r="G15" s="11"/>
-      <c r="H15" s="12"/>
-      <c r="I15" s="5"/>
-      <c r="J15" s="5"/>
-      <c r="K15" s="5"/>
+      <c r="G15" s="9"/>
+      <c r="H15" s="10"/>
+      <c r="I15" s="3"/>
+      <c r="J15" s="3"/>
+      <c r="K15" s="3"/>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A16" s="7"/>
-      <c r="B16" s="8"/>
-      <c r="C16" s="8"/>
-      <c r="D16" s="8"/>
-      <c r="E16" s="8"/>
-      <c r="F16" s="8"/>
-      <c r="G16" s="13"/>
-      <c r="H16" s="14"/>
-      <c r="I16" s="7"/>
-      <c r="J16" s="7"/>
-      <c r="K16" s="7"/>
+      <c r="A16" s="4"/>
+      <c r="B16" s="7"/>
+      <c r="C16" s="7"/>
+      <c r="D16" s="7"/>
+      <c r="E16" s="7"/>
+      <c r="F16" s="7"/>
+      <c r="G16" s="11"/>
+      <c r="H16" s="12"/>
+      <c r="I16" s="4"/>
+      <c r="J16" s="4"/>
+      <c r="K16" s="4"/>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A17" s="7"/>
-      <c r="B17" s="8"/>
-      <c r="C17" s="8"/>
-      <c r="D17" s="8"/>
-      <c r="E17" s="8"/>
-      <c r="F17" s="8"/>
-      <c r="G17" s="13"/>
-      <c r="H17" s="14"/>
-      <c r="I17" s="7"/>
-      <c r="J17" s="7"/>
-      <c r="K17" s="7"/>
+      <c r="A17" s="4"/>
+      <c r="B17" s="7"/>
+      <c r="C17" s="7"/>
+      <c r="D17" s="7"/>
+      <c r="E17" s="7"/>
+      <c r="F17" s="7"/>
+      <c r="G17" s="11"/>
+      <c r="H17" s="12"/>
+      <c r="I17" s="4"/>
+      <c r="J17" s="4"/>
+      <c r="K17" s="4"/>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A18" s="9"/>
-      <c r="B18" s="10"/>
-      <c r="C18" s="10"/>
-      <c r="D18" s="10"/>
-      <c r="E18" s="10"/>
-      <c r="F18" s="10"/>
-      <c r="G18" s="15"/>
-      <c r="H18" s="16"/>
-      <c r="I18" s="9"/>
-      <c r="J18" s="9"/>
-      <c r="K18" s="9"/>
+      <c r="A18" s="5"/>
+      <c r="B18" s="8"/>
+      <c r="C18" s="8"/>
+      <c r="D18" s="8"/>
+      <c r="E18" s="8"/>
+      <c r="F18" s="8"/>
+      <c r="G18" s="13"/>
+      <c r="H18" s="14"/>
+      <c r="I18" s="5"/>
+      <c r="J18" s="5"/>
+      <c r="K18" s="5"/>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A20" s="5">
+      <c r="A20" s="3">
         <v>4</v>
       </c>
       <c r="B20" s="6" t="s">
@@ -819,53 +891,53 @@
       </c>
       <c r="E20" s="6"/>
       <c r="F20" s="6"/>
-      <c r="G20" s="11"/>
-      <c r="H20" s="12"/>
-      <c r="I20" s="5"/>
-      <c r="J20" s="5"/>
-      <c r="K20" s="5"/>
+      <c r="G20" s="9"/>
+      <c r="H20" s="10"/>
+      <c r="I20" s="3"/>
+      <c r="J20" s="3"/>
+      <c r="K20" s="3"/>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A21" s="7"/>
-      <c r="B21" s="8"/>
-      <c r="C21" s="8"/>
-      <c r="D21" s="8"/>
-      <c r="E21" s="8"/>
-      <c r="F21" s="8"/>
-      <c r="G21" s="13"/>
-      <c r="H21" s="14"/>
-      <c r="I21" s="7"/>
-      <c r="J21" s="7"/>
-      <c r="K21" s="7"/>
+      <c r="A21" s="4"/>
+      <c r="B21" s="7"/>
+      <c r="C21" s="7"/>
+      <c r="D21" s="7"/>
+      <c r="E21" s="7"/>
+      <c r="F21" s="7"/>
+      <c r="G21" s="11"/>
+      <c r="H21" s="12"/>
+      <c r="I21" s="4"/>
+      <c r="J21" s="4"/>
+      <c r="K21" s="4"/>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A22" s="7"/>
-      <c r="B22" s="8"/>
-      <c r="C22" s="8"/>
-      <c r="D22" s="8"/>
-      <c r="E22" s="8"/>
-      <c r="F22" s="8"/>
-      <c r="G22" s="13"/>
-      <c r="H22" s="14"/>
-      <c r="I22" s="7"/>
-      <c r="J22" s="7"/>
-      <c r="K22" s="7"/>
+      <c r="A22" s="4"/>
+      <c r="B22" s="7"/>
+      <c r="C22" s="7"/>
+      <c r="D22" s="7"/>
+      <c r="E22" s="7"/>
+      <c r="F22" s="7"/>
+      <c r="G22" s="11"/>
+      <c r="H22" s="12"/>
+      <c r="I22" s="4"/>
+      <c r="J22" s="4"/>
+      <c r="K22" s="4"/>
     </row>
     <row r="23" spans="1:11" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="9"/>
-      <c r="B23" s="10"/>
-      <c r="C23" s="10"/>
-      <c r="D23" s="10"/>
-      <c r="E23" s="10"/>
-      <c r="F23" s="10"/>
-      <c r="G23" s="15"/>
-      <c r="H23" s="16"/>
-      <c r="I23" s="9"/>
-      <c r="J23" s="9"/>
-      <c r="K23" s="9"/>
+      <c r="A23" s="5"/>
+      <c r="B23" s="8"/>
+      <c r="C23" s="8"/>
+      <c r="D23" s="8"/>
+      <c r="E23" s="8"/>
+      <c r="F23" s="8"/>
+      <c r="G23" s="13"/>
+      <c r="H23" s="14"/>
+      <c r="I23" s="5"/>
+      <c r="J23" s="5"/>
+      <c r="K23" s="5"/>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A25" s="5">
+      <c r="A25" s="3">
         <v>5</v>
       </c>
       <c r="B25" s="6" t="s">
@@ -877,53 +949,53 @@
       </c>
       <c r="E25" s="6"/>
       <c r="F25" s="6"/>
-      <c r="G25" s="11"/>
-      <c r="H25" s="12"/>
-      <c r="I25" s="5"/>
-      <c r="J25" s="5"/>
-      <c r="K25" s="5"/>
+      <c r="G25" s="9"/>
+      <c r="H25" s="10"/>
+      <c r="I25" s="3"/>
+      <c r="J25" s="3"/>
+      <c r="K25" s="3"/>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A26" s="7"/>
-      <c r="B26" s="8"/>
-      <c r="C26" s="8"/>
-      <c r="D26" s="8"/>
-      <c r="E26" s="8"/>
-      <c r="F26" s="8"/>
-      <c r="G26" s="13"/>
-      <c r="H26" s="14"/>
-      <c r="I26" s="7"/>
-      <c r="J26" s="7"/>
-      <c r="K26" s="7"/>
+      <c r="A26" s="4"/>
+      <c r="B26" s="7"/>
+      <c r="C26" s="7"/>
+      <c r="D26" s="7"/>
+      <c r="E26" s="7"/>
+      <c r="F26" s="7"/>
+      <c r="G26" s="11"/>
+      <c r="H26" s="12"/>
+      <c r="I26" s="4"/>
+      <c r="J26" s="4"/>
+      <c r="K26" s="4"/>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A27" s="7"/>
-      <c r="B27" s="8"/>
-      <c r="C27" s="8"/>
-      <c r="D27" s="8"/>
-      <c r="E27" s="8"/>
-      <c r="F27" s="8"/>
-      <c r="G27" s="13"/>
-      <c r="H27" s="14"/>
-      <c r="I27" s="7"/>
-      <c r="J27" s="7"/>
-      <c r="K27" s="7"/>
+      <c r="A27" s="4"/>
+      <c r="B27" s="7"/>
+      <c r="C27" s="7"/>
+      <c r="D27" s="7"/>
+      <c r="E27" s="7"/>
+      <c r="F27" s="7"/>
+      <c r="G27" s="11"/>
+      <c r="H27" s="12"/>
+      <c r="I27" s="4"/>
+      <c r="J27" s="4"/>
+      <c r="K27" s="4"/>
     </row>
     <row r="28" spans="1:11" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="9"/>
-      <c r="B28" s="10"/>
-      <c r="C28" s="10"/>
-      <c r="D28" s="10"/>
-      <c r="E28" s="10"/>
-      <c r="F28" s="10"/>
-      <c r="G28" s="15"/>
-      <c r="H28" s="16"/>
-      <c r="I28" s="9"/>
-      <c r="J28" s="9"/>
-      <c r="K28" s="9"/>
+      <c r="A28" s="5"/>
+      <c r="B28" s="8"/>
+      <c r="C28" s="8"/>
+      <c r="D28" s="8"/>
+      <c r="E28" s="8"/>
+      <c r="F28" s="8"/>
+      <c r="G28" s="13"/>
+      <c r="H28" s="14"/>
+      <c r="I28" s="5"/>
+      <c r="J28" s="5"/>
+      <c r="K28" s="5"/>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A30" s="5">
+      <c r="A30" s="3">
         <v>6</v>
       </c>
       <c r="B30" s="6" t="s">
@@ -935,166 +1007,864 @@
       </c>
       <c r="E30" s="6"/>
       <c r="F30" s="6"/>
-      <c r="G30" s="11"/>
-      <c r="H30" s="12"/>
-      <c r="I30" s="5"/>
-      <c r="J30" s="5"/>
-      <c r="K30" s="5"/>
+      <c r="G30" s="9"/>
+      <c r="H30" s="10"/>
+      <c r="I30" s="3"/>
+      <c r="J30" s="3"/>
+      <c r="K30" s="3"/>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A31" s="7"/>
-      <c r="B31" s="8"/>
-      <c r="C31" s="8"/>
-      <c r="D31" s="8"/>
-      <c r="E31" s="8"/>
-      <c r="F31" s="8"/>
-      <c r="G31" s="13"/>
-      <c r="H31" s="14"/>
-      <c r="I31" s="7"/>
-      <c r="J31" s="7"/>
-      <c r="K31" s="7"/>
+      <c r="A31" s="4"/>
+      <c r="B31" s="7"/>
+      <c r="C31" s="7"/>
+      <c r="D31" s="7"/>
+      <c r="E31" s="7"/>
+      <c r="F31" s="7"/>
+      <c r="G31" s="11"/>
+      <c r="H31" s="12"/>
+      <c r="I31" s="4"/>
+      <c r="J31" s="4"/>
+      <c r="K31" s="4"/>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A32" s="7"/>
-      <c r="B32" s="8"/>
-      <c r="C32" s="8"/>
-      <c r="D32" s="8"/>
-      <c r="E32" s="8"/>
-      <c r="F32" s="8"/>
-      <c r="G32" s="13"/>
-      <c r="H32" s="14"/>
-      <c r="I32" s="7"/>
-      <c r="J32" s="7"/>
-      <c r="K32" s="7"/>
+      <c r="A32" s="4"/>
+      <c r="B32" s="7"/>
+      <c r="C32" s="7"/>
+      <c r="D32" s="7"/>
+      <c r="E32" s="7"/>
+      <c r="F32" s="7"/>
+      <c r="G32" s="11"/>
+      <c r="H32" s="12"/>
+      <c r="I32" s="4"/>
+      <c r="J32" s="4"/>
+      <c r="K32" s="4"/>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A33" s="9"/>
-      <c r="B33" s="10"/>
-      <c r="C33" s="10"/>
-      <c r="D33" s="10"/>
-      <c r="E33" s="10"/>
-      <c r="F33" s="10"/>
-      <c r="G33" s="15"/>
-      <c r="H33" s="16"/>
-      <c r="I33" s="9"/>
-      <c r="J33" s="9"/>
-      <c r="K33" s="9"/>
+      <c r="A33" s="5"/>
+      <c r="B33" s="8"/>
+      <c r="C33" s="8"/>
+      <c r="D33" s="8"/>
+      <c r="E33" s="8"/>
+      <c r="F33" s="8"/>
+      <c r="G33" s="13"/>
+      <c r="H33" s="14"/>
+      <c r="I33" s="5"/>
+      <c r="J33" s="5"/>
+      <c r="K33" s="5"/>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A35" s="5">
+      <c r="A35" s="3">
         <v>7</v>
       </c>
-      <c r="B35" s="5"/>
-      <c r="C35" s="5"/>
-      <c r="D35" s="6"/>
+      <c r="B35" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C35" s="3"/>
+      <c r="D35" s="6" t="s">
+        <v>21</v>
+      </c>
       <c r="E35" s="6"/>
       <c r="F35" s="6"/>
-      <c r="G35" s="11"/>
-      <c r="H35" s="12"/>
-      <c r="I35" s="5"/>
-      <c r="J35" s="5"/>
-      <c r="K35" s="5"/>
+      <c r="G35" s="9"/>
+      <c r="H35" s="10"/>
+      <c r="I35" s="3"/>
+      <c r="J35" s="3"/>
+      <c r="K35" s="3"/>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A36" s="7"/>
-      <c r="B36" s="7"/>
-      <c r="C36" s="7"/>
-      <c r="D36" s="8"/>
-      <c r="E36" s="8"/>
-      <c r="F36" s="8"/>
-      <c r="G36" s="13"/>
-      <c r="H36" s="14"/>
-      <c r="I36" s="7"/>
-      <c r="J36" s="7"/>
-      <c r="K36" s="7"/>
+      <c r="A36" s="4"/>
+      <c r="B36" s="4"/>
+      <c r="C36" s="4"/>
+      <c r="D36" s="7"/>
+      <c r="E36" s="7"/>
+      <c r="F36" s="7"/>
+      <c r="G36" s="11"/>
+      <c r="H36" s="12"/>
+      <c r="I36" s="4"/>
+      <c r="J36" s="4"/>
+      <c r="K36" s="4"/>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A37" s="7"/>
-      <c r="B37" s="7"/>
-      <c r="C37" s="7"/>
-      <c r="D37" s="8"/>
-      <c r="E37" s="8"/>
-      <c r="F37" s="8"/>
-      <c r="G37" s="13"/>
-      <c r="H37" s="14"/>
-      <c r="I37" s="7"/>
-      <c r="J37" s="7"/>
-      <c r="K37" s="7"/>
+      <c r="A37" s="4"/>
+      <c r="B37" s="4"/>
+      <c r="C37" s="4"/>
+      <c r="D37" s="7"/>
+      <c r="E37" s="7"/>
+      <c r="F37" s="7"/>
+      <c r="G37" s="11"/>
+      <c r="H37" s="12"/>
+      <c r="I37" s="4"/>
+      <c r="J37" s="4"/>
+      <c r="K37" s="4"/>
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A38" s="9"/>
-      <c r="B38" s="9"/>
-      <c r="C38" s="9"/>
-      <c r="D38" s="10"/>
-      <c r="E38" s="10"/>
-      <c r="F38" s="10"/>
-      <c r="G38" s="15"/>
-      <c r="H38" s="16"/>
-      <c r="I38" s="9"/>
-      <c r="J38" s="9"/>
-      <c r="K38" s="9"/>
+      <c r="A38" s="5"/>
+      <c r="B38" s="5"/>
+      <c r="C38" s="5"/>
+      <c r="D38" s="8"/>
+      <c r="E38" s="8"/>
+      <c r="F38" s="8"/>
+      <c r="G38" s="13"/>
+      <c r="H38" s="14"/>
+      <c r="I38" s="5"/>
+      <c r="J38" s="5"/>
+      <c r="K38" s="5"/>
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A40" s="5">
+      <c r="A40" s="3">
         <v>8</v>
       </c>
-      <c r="B40" s="5"/>
-      <c r="C40" s="5"/>
-      <c r="D40" s="6"/>
+      <c r="B40" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C40" s="3"/>
+      <c r="D40" s="6" t="s">
+        <v>23</v>
+      </c>
       <c r="E40" s="6"/>
       <c r="F40" s="6"/>
-      <c r="G40" s="11"/>
-      <c r="H40" s="12"/>
-      <c r="I40" s="5"/>
-      <c r="J40" s="5"/>
-      <c r="K40" s="5"/>
+      <c r="G40" s="9"/>
+      <c r="H40" s="10"/>
+      <c r="I40" s="3"/>
+      <c r="J40" s="3"/>
+      <c r="K40" s="3"/>
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A41" s="7"/>
-      <c r="B41" s="7"/>
-      <c r="C41" s="7"/>
-      <c r="D41" s="8"/>
-      <c r="E41" s="8"/>
-      <c r="F41" s="8"/>
-      <c r="G41" s="13"/>
-      <c r="H41" s="14"/>
-      <c r="I41" s="7"/>
-      <c r="J41" s="7"/>
-      <c r="K41" s="7"/>
+      <c r="A41" s="4"/>
+      <c r="B41" s="4"/>
+      <c r="C41" s="4"/>
+      <c r="D41" s="7"/>
+      <c r="E41" s="7"/>
+      <c r="F41" s="7"/>
+      <c r="G41" s="11"/>
+      <c r="H41" s="12"/>
+      <c r="I41" s="4"/>
+      <c r="J41" s="4"/>
+      <c r="K41" s="4"/>
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A42" s="7"/>
-      <c r="B42" s="7"/>
-      <c r="C42" s="7"/>
-      <c r="D42" s="8"/>
-      <c r="E42" s="8"/>
-      <c r="F42" s="8"/>
-      <c r="G42" s="13"/>
-      <c r="H42" s="14"/>
-      <c r="I42" s="7"/>
-      <c r="J42" s="7"/>
-      <c r="K42" s="7"/>
+      <c r="A42" s="4"/>
+      <c r="B42" s="4"/>
+      <c r="C42" s="4"/>
+      <c r="D42" s="7"/>
+      <c r="E42" s="7"/>
+      <c r="F42" s="7"/>
+      <c r="G42" s="11"/>
+      <c r="H42" s="12"/>
+      <c r="I42" s="4"/>
+      <c r="J42" s="4"/>
+      <c r="K42" s="4"/>
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A43" s="9"/>
-      <c r="B43" s="9"/>
-      <c r="C43" s="9"/>
-      <c r="D43" s="10"/>
-      <c r="E43" s="10"/>
-      <c r="F43" s="10"/>
-      <c r="G43" s="15"/>
-      <c r="H43" s="16"/>
-      <c r="I43" s="9"/>
-      <c r="J43" s="9"/>
-      <c r="K43" s="9"/>
+      <c r="A43" s="5"/>
+      <c r="B43" s="5"/>
+      <c r="C43" s="5"/>
+      <c r="D43" s="8"/>
+      <c r="E43" s="8"/>
+      <c r="F43" s="8"/>
+      <c r="G43" s="13"/>
+      <c r="H43" s="14"/>
+      <c r="I43" s="5"/>
+      <c r="J43" s="5"/>
+      <c r="K43" s="5"/>
+    </row>
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A45" s="3">
+        <v>9</v>
+      </c>
+      <c r="B45" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C45" s="3"/>
+      <c r="D45" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="E45" s="6"/>
+      <c r="F45" s="6"/>
+      <c r="G45" s="9"/>
+      <c r="H45" s="10"/>
+      <c r="I45" s="3"/>
+      <c r="J45" s="3"/>
+      <c r="K45" s="3"/>
+    </row>
+    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A46" s="4"/>
+      <c r="B46" s="4"/>
+      <c r="C46" s="4"/>
+      <c r="D46" s="7"/>
+      <c r="E46" s="7"/>
+      <c r="F46" s="7"/>
+      <c r="G46" s="11"/>
+      <c r="H46" s="12"/>
+      <c r="I46" s="4"/>
+      <c r="J46" s="4"/>
+      <c r="K46" s="4"/>
+    </row>
+    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A47" s="4"/>
+      <c r="B47" s="4"/>
+      <c r="C47" s="4"/>
+      <c r="D47" s="7"/>
+      <c r="E47" s="7"/>
+      <c r="F47" s="7"/>
+      <c r="G47" s="11"/>
+      <c r="H47" s="12"/>
+      <c r="I47" s="4"/>
+      <c r="J47" s="4"/>
+      <c r="K47" s="4"/>
+    </row>
+    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A48" s="5"/>
+      <c r="B48" s="5"/>
+      <c r="C48" s="5"/>
+      <c r="D48" s="8"/>
+      <c r="E48" s="8"/>
+      <c r="F48" s="8"/>
+      <c r="G48" s="13"/>
+      <c r="H48" s="14"/>
+      <c r="I48" s="5"/>
+      <c r="J48" s="5"/>
+      <c r="K48" s="5"/>
+    </row>
+    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A50" s="3">
+        <v>10</v>
+      </c>
+      <c r="B50" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C50" s="3"/>
+      <c r="D50" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="E50" s="6"/>
+      <c r="F50" s="6"/>
+      <c r="G50" s="9"/>
+      <c r="H50" s="10"/>
+      <c r="I50" s="3"/>
+      <c r="J50" s="3"/>
+      <c r="K50" s="3"/>
+    </row>
+    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A51" s="4"/>
+      <c r="B51" s="4"/>
+      <c r="C51" s="4"/>
+      <c r="D51" s="7"/>
+      <c r="E51" s="7"/>
+      <c r="F51" s="7"/>
+      <c r="G51" s="11"/>
+      <c r="H51" s="12"/>
+      <c r="I51" s="4"/>
+      <c r="J51" s="4"/>
+      <c r="K51" s="4"/>
+    </row>
+    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A52" s="4"/>
+      <c r="B52" s="4"/>
+      <c r="C52" s="4"/>
+      <c r="D52" s="7"/>
+      <c r="E52" s="7"/>
+      <c r="F52" s="7"/>
+      <c r="G52" s="11"/>
+      <c r="H52" s="12"/>
+      <c r="I52" s="4"/>
+      <c r="J52" s="4"/>
+      <c r="K52" s="4"/>
+    </row>
+    <row r="53" spans="1:11" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A53" s="5"/>
+      <c r="B53" s="5"/>
+      <c r="C53" s="5"/>
+      <c r="D53" s="8"/>
+      <c r="E53" s="8"/>
+      <c r="F53" s="8"/>
+      <c r="G53" s="13"/>
+      <c r="H53" s="14"/>
+      <c r="I53" s="5"/>
+      <c r="J53" s="5"/>
+      <c r="K53" s="5"/>
+    </row>
+    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A55" s="3">
+        <v>11</v>
+      </c>
+      <c r="B55" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C55" s="3"/>
+      <c r="D55" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="E55" s="6"/>
+      <c r="F55" s="6"/>
+      <c r="G55" s="9"/>
+      <c r="H55" s="10"/>
+      <c r="I55" s="3"/>
+      <c r="J55" s="3"/>
+      <c r="K55" s="3"/>
+    </row>
+    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A56" s="4"/>
+      <c r="B56" s="4"/>
+      <c r="C56" s="4"/>
+      <c r="D56" s="7"/>
+      <c r="E56" s="7"/>
+      <c r="F56" s="7"/>
+      <c r="G56" s="11"/>
+      <c r="H56" s="12"/>
+      <c r="I56" s="4"/>
+      <c r="J56" s="4"/>
+      <c r="K56" s="4"/>
+    </row>
+    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A57" s="4"/>
+      <c r="B57" s="4"/>
+      <c r="C57" s="4"/>
+      <c r="D57" s="7"/>
+      <c r="E57" s="7"/>
+      <c r="F57" s="7"/>
+      <c r="G57" s="11"/>
+      <c r="H57" s="12"/>
+      <c r="I57" s="4"/>
+      <c r="J57" s="4"/>
+      <c r="K57" s="4"/>
+    </row>
+    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A58" s="5"/>
+      <c r="B58" s="5"/>
+      <c r="C58" s="5"/>
+      <c r="D58" s="8"/>
+      <c r="E58" s="8"/>
+      <c r="F58" s="8"/>
+      <c r="G58" s="13"/>
+      <c r="H58" s="14"/>
+      <c r="I58" s="5"/>
+      <c r="J58" s="5"/>
+      <c r="K58" s="5"/>
+    </row>
+    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A60" s="3">
+        <v>12</v>
+      </c>
+      <c r="B60" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C60" s="3"/>
+      <c r="D60" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="E60" s="6"/>
+      <c r="F60" s="6"/>
+      <c r="G60" s="9"/>
+      <c r="H60" s="10"/>
+      <c r="I60" s="3"/>
+      <c r="J60" s="3"/>
+      <c r="K60" s="3"/>
+    </row>
+    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A61" s="4"/>
+      <c r="B61" s="4"/>
+      <c r="C61" s="4"/>
+      <c r="D61" s="7"/>
+      <c r="E61" s="7"/>
+      <c r="F61" s="7"/>
+      <c r="G61" s="11"/>
+      <c r="H61" s="12"/>
+      <c r="I61" s="4"/>
+      <c r="J61" s="4"/>
+      <c r="K61" s="4"/>
+    </row>
+    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A62" s="4"/>
+      <c r="B62" s="4"/>
+      <c r="C62" s="4"/>
+      <c r="D62" s="7"/>
+      <c r="E62" s="7"/>
+      <c r="F62" s="7"/>
+      <c r="G62" s="11"/>
+      <c r="H62" s="12"/>
+      <c r="I62" s="4"/>
+      <c r="J62" s="4"/>
+      <c r="K62" s="4"/>
+    </row>
+    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A63" s="5"/>
+      <c r="B63" s="5"/>
+      <c r="C63" s="5"/>
+      <c r="D63" s="8"/>
+      <c r="E63" s="8"/>
+      <c r="F63" s="8"/>
+      <c r="G63" s="13"/>
+      <c r="H63" s="14"/>
+      <c r="I63" s="5"/>
+      <c r="J63" s="5"/>
+      <c r="K63" s="5"/>
+    </row>
+    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A65" s="3">
+        <v>13</v>
+      </c>
+      <c r="B65" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="C65" s="3"/>
+      <c r="D65" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="E65" s="6"/>
+      <c r="F65" s="6"/>
+      <c r="G65" s="9"/>
+      <c r="H65" s="10"/>
+      <c r="I65" s="3"/>
+      <c r="J65" s="3"/>
+      <c r="K65" s="3"/>
+    </row>
+    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A66" s="4"/>
+      <c r="B66" s="4"/>
+      <c r="C66" s="4"/>
+      <c r="D66" s="7"/>
+      <c r="E66" s="7"/>
+      <c r="F66" s="7"/>
+      <c r="G66" s="11"/>
+      <c r="H66" s="12"/>
+      <c r="I66" s="4"/>
+      <c r="J66" s="4"/>
+      <c r="K66" s="4"/>
+    </row>
+    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A67" s="4"/>
+      <c r="B67" s="4"/>
+      <c r="C67" s="4"/>
+      <c r="D67" s="7"/>
+      <c r="E67" s="7"/>
+      <c r="F67" s="7"/>
+      <c r="G67" s="11"/>
+      <c r="H67" s="12"/>
+      <c r="I67" s="4"/>
+      <c r="J67" s="4"/>
+      <c r="K67" s="4"/>
+    </row>
+    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A68" s="5"/>
+      <c r="B68" s="5"/>
+      <c r="C68" s="5"/>
+      <c r="D68" s="8"/>
+      <c r="E68" s="8"/>
+      <c r="F68" s="8"/>
+      <c r="G68" s="13"/>
+      <c r="H68" s="14"/>
+      <c r="I68" s="5"/>
+      <c r="J68" s="5"/>
+      <c r="K68" s="5"/>
+    </row>
+    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A70" s="3">
+        <v>14</v>
+      </c>
+      <c r="B70" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C70" s="3"/>
+      <c r="D70" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="E70" s="6"/>
+      <c r="F70" s="6"/>
+      <c r="G70" s="9"/>
+      <c r="H70" s="10"/>
+      <c r="I70" s="3"/>
+      <c r="J70" s="3"/>
+      <c r="K70" s="3"/>
+    </row>
+    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A71" s="4"/>
+      <c r="B71" s="4"/>
+      <c r="C71" s="4"/>
+      <c r="D71" s="7"/>
+      <c r="E71" s="7"/>
+      <c r="F71" s="7"/>
+      <c r="G71" s="11"/>
+      <c r="H71" s="12"/>
+      <c r="I71" s="4"/>
+      <c r="J71" s="4"/>
+      <c r="K71" s="4"/>
+    </row>
+    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A72" s="4"/>
+      <c r="B72" s="4"/>
+      <c r="C72" s="4"/>
+      <c r="D72" s="7"/>
+      <c r="E72" s="7"/>
+      <c r="F72" s="7"/>
+      <c r="G72" s="11"/>
+      <c r="H72" s="12"/>
+      <c r="I72" s="4"/>
+      <c r="J72" s="4"/>
+      <c r="K72" s="4"/>
+    </row>
+    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A73" s="5"/>
+      <c r="B73" s="5"/>
+      <c r="C73" s="5"/>
+      <c r="D73" s="8"/>
+      <c r="E73" s="8"/>
+      <c r="F73" s="8"/>
+      <c r="G73" s="13"/>
+      <c r="H73" s="14"/>
+      <c r="I73" s="5"/>
+      <c r="J73" s="5"/>
+      <c r="K73" s="5"/>
+    </row>
+    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A75" s="3">
+        <v>15</v>
+      </c>
+      <c r="B75" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="C75" s="3"/>
+      <c r="D75" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="E75" s="6"/>
+      <c r="F75" s="6"/>
+      <c r="G75" s="9"/>
+      <c r="H75" s="10"/>
+      <c r="I75" s="3"/>
+      <c r="J75" s="3"/>
+      <c r="K75" s="3"/>
+    </row>
+    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A76" s="4"/>
+      <c r="B76" s="4"/>
+      <c r="C76" s="4"/>
+      <c r="D76" s="7"/>
+      <c r="E76" s="7"/>
+      <c r="F76" s="7"/>
+      <c r="G76" s="11"/>
+      <c r="H76" s="12"/>
+      <c r="I76" s="4"/>
+      <c r="J76" s="4"/>
+      <c r="K76" s="4"/>
+    </row>
+    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A77" s="4"/>
+      <c r="B77" s="4"/>
+      <c r="C77" s="4"/>
+      <c r="D77" s="7"/>
+      <c r="E77" s="7"/>
+      <c r="F77" s="7"/>
+      <c r="G77" s="11"/>
+      <c r="H77" s="12"/>
+      <c r="I77" s="4"/>
+      <c r="J77" s="4"/>
+      <c r="K77" s="4"/>
+    </row>
+    <row r="78" spans="1:11" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A78" s="5"/>
+      <c r="B78" s="5"/>
+      <c r="C78" s="5"/>
+      <c r="D78" s="8"/>
+      <c r="E78" s="8"/>
+      <c r="F78" s="8"/>
+      <c r="G78" s="13"/>
+      <c r="H78" s="14"/>
+      <c r="I78" s="5"/>
+      <c r="J78" s="5"/>
+      <c r="K78" s="5"/>
+    </row>
+    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A80" s="3">
+        <v>16</v>
+      </c>
+      <c r="B80" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="C80" s="3"/>
+      <c r="D80" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="E80" s="6"/>
+      <c r="F80" s="6"/>
+      <c r="G80" s="9"/>
+      <c r="H80" s="10"/>
+      <c r="I80" s="3"/>
+      <c r="J80" s="3"/>
+      <c r="K80" s="3"/>
+    </row>
+    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A81" s="4"/>
+      <c r="B81" s="4"/>
+      <c r="C81" s="4"/>
+      <c r="D81" s="7"/>
+      <c r="E81" s="7"/>
+      <c r="F81" s="7"/>
+      <c r="G81" s="11"/>
+      <c r="H81" s="12"/>
+      <c r="I81" s="4"/>
+      <c r="J81" s="4"/>
+      <c r="K81" s="4"/>
+    </row>
+    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A82" s="4"/>
+      <c r="B82" s="4"/>
+      <c r="C82" s="4"/>
+      <c r="D82" s="7"/>
+      <c r="E82" s="7"/>
+      <c r="F82" s="7"/>
+      <c r="G82" s="11"/>
+      <c r="H82" s="12"/>
+      <c r="I82" s="4"/>
+      <c r="J82" s="4"/>
+      <c r="K82" s="4"/>
+    </row>
+    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A83" s="5"/>
+      <c r="B83" s="5"/>
+      <c r="C83" s="5"/>
+      <c r="D83" s="8"/>
+      <c r="E83" s="8"/>
+      <c r="F83" s="8"/>
+      <c r="G83" s="13"/>
+      <c r="H83" s="14"/>
+      <c r="I83" s="5"/>
+      <c r="J83" s="5"/>
+      <c r="K83" s="5"/>
+    </row>
+    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A85" s="3">
+        <v>16</v>
+      </c>
+      <c r="B85" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="C85" s="3"/>
+      <c r="D85" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="E85" s="6"/>
+      <c r="F85" s="6"/>
+      <c r="G85" s="9"/>
+      <c r="H85" s="10"/>
+      <c r="I85" s="3"/>
+      <c r="J85" s="3"/>
+      <c r="K85" s="3"/>
+    </row>
+    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A86" s="4"/>
+      <c r="B86" s="4"/>
+      <c r="C86" s="4"/>
+      <c r="D86" s="7"/>
+      <c r="E86" s="7"/>
+      <c r="F86" s="7"/>
+      <c r="G86" s="11"/>
+      <c r="H86" s="12"/>
+      <c r="I86" s="4"/>
+      <c r="J86" s="4"/>
+      <c r="K86" s="4"/>
+    </row>
+    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A87" s="4"/>
+      <c r="B87" s="4"/>
+      <c r="C87" s="4"/>
+      <c r="D87" s="7"/>
+      <c r="E87" s="7"/>
+      <c r="F87" s="7"/>
+      <c r="G87" s="11"/>
+      <c r="H87" s="12"/>
+      <c r="I87" s="4"/>
+      <c r="J87" s="4"/>
+      <c r="K87" s="4"/>
+    </row>
+    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A88" s="5"/>
+      <c r="B88" s="5"/>
+      <c r="C88" s="5"/>
+      <c r="D88" s="8"/>
+      <c r="E88" s="8"/>
+      <c r="F88" s="8"/>
+      <c r="G88" s="13"/>
+      <c r="H88" s="14"/>
+      <c r="I88" s="5"/>
+      <c r="J88" s="5"/>
+      <c r="K88" s="5"/>
+    </row>
+    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A90" s="3">
+        <v>17</v>
+      </c>
+      <c r="B90" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="C90" s="3"/>
+      <c r="D90" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="E90" s="6"/>
+      <c r="F90" s="6"/>
+      <c r="G90" s="9"/>
+      <c r="H90" s="10"/>
+      <c r="I90" s="3"/>
+      <c r="J90" s="3"/>
+      <c r="K90" s="3"/>
+    </row>
+    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A91" s="4"/>
+      <c r="B91" s="4"/>
+      <c r="C91" s="4"/>
+      <c r="D91" s="7"/>
+      <c r="E91" s="7"/>
+      <c r="F91" s="7"/>
+      <c r="G91" s="11"/>
+      <c r="H91" s="12"/>
+      <c r="I91" s="4"/>
+      <c r="J91" s="4"/>
+      <c r="K91" s="4"/>
+    </row>
+    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A92" s="4"/>
+      <c r="B92" s="4"/>
+      <c r="C92" s="4"/>
+      <c r="D92" s="7"/>
+      <c r="E92" s="7"/>
+      <c r="F92" s="7"/>
+      <c r="G92" s="11"/>
+      <c r="H92" s="12"/>
+      <c r="I92" s="4"/>
+      <c r="J92" s="4"/>
+      <c r="K92" s="4"/>
+    </row>
+    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A93" s="5"/>
+      <c r="B93" s="5"/>
+      <c r="C93" s="5"/>
+      <c r="D93" s="8"/>
+      <c r="E93" s="8"/>
+      <c r="F93" s="8"/>
+      <c r="G93" s="13"/>
+      <c r="H93" s="14"/>
+      <c r="I93" s="5"/>
+      <c r="J93" s="5"/>
+      <c r="K93" s="5"/>
     </row>
   </sheetData>
-  <mergeCells count="59">
-    <mergeCell ref="A40:A43"/>
-    <mergeCell ref="B40:C43"/>
-    <mergeCell ref="D40:F43"/>
-    <mergeCell ref="I40:I43"/>
-    <mergeCell ref="J40:J43"/>
+  <mergeCells count="129">
+    <mergeCell ref="J85:J88"/>
+    <mergeCell ref="K85:K88"/>
+    <mergeCell ref="A90:A93"/>
+    <mergeCell ref="B90:C93"/>
+    <mergeCell ref="D90:F93"/>
+    <mergeCell ref="G90:H93"/>
+    <mergeCell ref="I90:I93"/>
+    <mergeCell ref="J90:J93"/>
+    <mergeCell ref="K90:K93"/>
+    <mergeCell ref="A85:A88"/>
+    <mergeCell ref="B85:C88"/>
+    <mergeCell ref="D85:F88"/>
+    <mergeCell ref="G85:H88"/>
+    <mergeCell ref="I85:I88"/>
+    <mergeCell ref="J75:J78"/>
+    <mergeCell ref="K75:K78"/>
+    <mergeCell ref="A80:A83"/>
+    <mergeCell ref="B80:C83"/>
+    <mergeCell ref="D80:F83"/>
+    <mergeCell ref="G80:H83"/>
+    <mergeCell ref="I80:I83"/>
+    <mergeCell ref="J80:J83"/>
+    <mergeCell ref="K80:K83"/>
+    <mergeCell ref="A75:A78"/>
+    <mergeCell ref="B75:C78"/>
+    <mergeCell ref="D75:F78"/>
+    <mergeCell ref="G75:H78"/>
+    <mergeCell ref="I75:I78"/>
+    <mergeCell ref="J65:J68"/>
+    <mergeCell ref="K65:K68"/>
+    <mergeCell ref="A70:A73"/>
+    <mergeCell ref="B70:C73"/>
+    <mergeCell ref="D70:F73"/>
+    <mergeCell ref="G70:H73"/>
+    <mergeCell ref="I70:I73"/>
+    <mergeCell ref="J70:J73"/>
+    <mergeCell ref="K70:K73"/>
+    <mergeCell ref="A65:A68"/>
+    <mergeCell ref="B65:C68"/>
+    <mergeCell ref="D65:F68"/>
+    <mergeCell ref="G65:H68"/>
+    <mergeCell ref="I65:I68"/>
+    <mergeCell ref="J55:J58"/>
+    <mergeCell ref="K55:K58"/>
+    <mergeCell ref="A60:A63"/>
+    <mergeCell ref="B60:C63"/>
+    <mergeCell ref="D60:F63"/>
+    <mergeCell ref="G60:H63"/>
+    <mergeCell ref="I60:I63"/>
+    <mergeCell ref="J60:J63"/>
+    <mergeCell ref="K60:K63"/>
+    <mergeCell ref="A55:A58"/>
+    <mergeCell ref="B55:C58"/>
+    <mergeCell ref="D55:F58"/>
+    <mergeCell ref="G55:H58"/>
+    <mergeCell ref="I55:I58"/>
+    <mergeCell ref="J45:J48"/>
+    <mergeCell ref="K45:K48"/>
+    <mergeCell ref="A50:A53"/>
+    <mergeCell ref="B50:C53"/>
+    <mergeCell ref="D50:F53"/>
+    <mergeCell ref="G50:H53"/>
+    <mergeCell ref="I50:I53"/>
+    <mergeCell ref="J50:J53"/>
+    <mergeCell ref="K50:K53"/>
+    <mergeCell ref="A45:A48"/>
+    <mergeCell ref="B45:C48"/>
+    <mergeCell ref="D45:F48"/>
+    <mergeCell ref="G45:H48"/>
+    <mergeCell ref="I45:I48"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="D3:F3"/>
+    <mergeCell ref="D5:F8"/>
+    <mergeCell ref="B5:C8"/>
+    <mergeCell ref="A5:A8"/>
+    <mergeCell ref="K5:K8"/>
+    <mergeCell ref="A10:A13"/>
+    <mergeCell ref="B10:C13"/>
+    <mergeCell ref="D10:F13"/>
+    <mergeCell ref="I10:I13"/>
+    <mergeCell ref="J10:J13"/>
+    <mergeCell ref="K10:K13"/>
+    <mergeCell ref="G5:H8"/>
+    <mergeCell ref="G10:H13"/>
+    <mergeCell ref="I5:I8"/>
+    <mergeCell ref="J5:J8"/>
+    <mergeCell ref="K20:K23"/>
+    <mergeCell ref="G20:H23"/>
+    <mergeCell ref="A15:A18"/>
+    <mergeCell ref="B15:C18"/>
+    <mergeCell ref="D15:F18"/>
+    <mergeCell ref="I15:I18"/>
+    <mergeCell ref="J15:J18"/>
+    <mergeCell ref="K15:K18"/>
+    <mergeCell ref="G15:H18"/>
+    <mergeCell ref="A20:A23"/>
+    <mergeCell ref="B20:C23"/>
+    <mergeCell ref="D20:F23"/>
+    <mergeCell ref="I20:I23"/>
+    <mergeCell ref="J20:J23"/>
+    <mergeCell ref="K30:K33"/>
+    <mergeCell ref="G30:H33"/>
+    <mergeCell ref="A25:A28"/>
+    <mergeCell ref="B25:C28"/>
+    <mergeCell ref="D25:F28"/>
+    <mergeCell ref="I25:I28"/>
+    <mergeCell ref="J25:J28"/>
+    <mergeCell ref="K25:K28"/>
+    <mergeCell ref="G25:H28"/>
+    <mergeCell ref="A30:A33"/>
+    <mergeCell ref="B30:C33"/>
+    <mergeCell ref="D30:F33"/>
+    <mergeCell ref="I30:I33"/>
+    <mergeCell ref="J30:J33"/>
     <mergeCell ref="K40:K43"/>
     <mergeCell ref="G40:H43"/>
     <mergeCell ref="A35:A38"/>
@@ -1104,51 +1874,11 @@
     <mergeCell ref="J35:J38"/>
     <mergeCell ref="K35:K38"/>
     <mergeCell ref="G35:H38"/>
-    <mergeCell ref="A30:A33"/>
-    <mergeCell ref="B30:C33"/>
-    <mergeCell ref="D30:F33"/>
-    <mergeCell ref="I30:I33"/>
-    <mergeCell ref="J30:J33"/>
-    <mergeCell ref="K30:K33"/>
-    <mergeCell ref="G30:H33"/>
-    <mergeCell ref="A25:A28"/>
-    <mergeCell ref="B25:C28"/>
-    <mergeCell ref="D25:F28"/>
-    <mergeCell ref="I25:I28"/>
-    <mergeCell ref="J25:J28"/>
-    <mergeCell ref="K25:K28"/>
-    <mergeCell ref="G25:H28"/>
-    <mergeCell ref="A20:A23"/>
-    <mergeCell ref="B20:C23"/>
-    <mergeCell ref="D20:F23"/>
-    <mergeCell ref="I20:I23"/>
-    <mergeCell ref="J20:J23"/>
-    <mergeCell ref="K20:K23"/>
-    <mergeCell ref="G20:H23"/>
-    <mergeCell ref="A15:A18"/>
-    <mergeCell ref="B15:C18"/>
-    <mergeCell ref="D15:F18"/>
-    <mergeCell ref="I15:I18"/>
-    <mergeCell ref="J15:J18"/>
-    <mergeCell ref="K15:K18"/>
-    <mergeCell ref="G15:H18"/>
-    <mergeCell ref="K5:K8"/>
-    <mergeCell ref="A10:A13"/>
-    <mergeCell ref="B10:C13"/>
-    <mergeCell ref="D10:F13"/>
-    <mergeCell ref="I10:I13"/>
-    <mergeCell ref="J10:J13"/>
-    <mergeCell ref="K10:K13"/>
-    <mergeCell ref="G5:H8"/>
-    <mergeCell ref="G10:H13"/>
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="D3:F3"/>
-    <mergeCell ref="D5:F8"/>
-    <mergeCell ref="B5:C8"/>
-    <mergeCell ref="A5:A8"/>
-    <mergeCell ref="I5:I8"/>
-    <mergeCell ref="J5:J8"/>
+    <mergeCell ref="A40:A43"/>
+    <mergeCell ref="B40:C43"/>
+    <mergeCell ref="D40:F43"/>
+    <mergeCell ref="I40:I43"/>
+    <mergeCell ref="J40:J43"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
